--- a/tables/id_converter.xlsx
+++ b/tables/id_converter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D12C-5289-4AFC-B274-0F834F6BBC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FCE6A-700D-4310-B0BD-487C240A608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0724BFF1-F47D-4B87-9328-31066A2438D5}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>gaia_id</t>
-  </si>
-  <si>
     <t>524924310153249920 </t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">4657637156283982336 </t>
+  </si>
+  <si>
+    <t>source_id</t>
   </si>
 </sst>
 </file>
@@ -490,9 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7417B10B-3C5E-4574-A7D8-1CAF86FC4831}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -502,98 +500,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tables/id_converter.xlsx
+++ b/tables/id_converter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71FCE6A-700D-4310-B0BD-487C240A608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E1E031-3A2E-4699-8950-39784F4CE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0724BFF1-F47D-4B87-9328-31066A2438D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>524924310153249920 </t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>source_id</t>
+  </si>
+  <si>
+    <t>4255891924062617088</t>
+  </si>
+  <si>
+    <t>XTE J1855-026</t>
+  </si>
+  <si>
+    <t>4070968778552176768</t>
+  </si>
+  <si>
+    <t>IGR J18027-2016</t>
+  </si>
+  <si>
+    <t>EXO 1722-363</t>
+  </si>
+  <si>
+    <t>OAO 1657-415</t>
+  </si>
+  <si>
+    <t>5966391894137386240</t>
+  </si>
+  <si>
+    <t>0000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -163,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -174,6 +198,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -488,14 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7417B10B-3C5E-4574-A7D8-1CAF86FC4831}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -592,6 +620,38 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
